--- a/team_specific_matrix/Regent_B.xlsx
+++ b/team_specific_matrix/Regent_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C2">
-        <v>0.2666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1333333333333333</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1333333333333333</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
         <v>0.3333333333333333</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
         <v>0.3333333333333333</v>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08333333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="R8">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="S8">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1095890410958904</v>
+        <v>0.1418439716312057</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0136986301369863</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0547945205479452</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1232876712328767</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0410958904109589</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.273972602739726</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="R10">
-        <v>0.0547945205479452</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="S10">
-        <v>0.3287671232876712</v>
+        <v>0.3120567375886525</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L11">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2727272727272727</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5454545454545454</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="K16">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I17">
-        <v>0.04</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J17">
-        <v>0.5600000000000001</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.04</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2857142857142857</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1428571428571428</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02083333333333333</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1458333333333333</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="J19">
-        <v>0.5208333333333334</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="K19">
-        <v>0.1875</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.125</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
   </sheetData>
